--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546E919-DB02-4684-B75E-B15444F18899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE048B8-63F5-473C-B3C2-44CF9FBDDFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devoluciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
@@ -73,16 +73,16 @@
     <t>Nombre del banco</t>
   </si>
   <si>
-    <t>Dirección del banco</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Dirección del titular</t>
+  </si>
+  <si>
+    <t>Ciudad del titular</t>
+  </si>
+  <si>
+    <t>País del titular</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -195,13 +195,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,35 +596,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="36.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="33.88671875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="17.44140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="14.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="36.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="33.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -668,25 +665,25 @@
         <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>

--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE048B8-63F5-473C-B3C2-44CF9FBDDFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDF62F6-809C-486E-9A0C-8706E9088DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Devoluciones</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>País del titular</t>
+  </si>
+  <si>
+    <t>Cotown</t>
+  </si>
+  <si>
+    <t>Propietario</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +159,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009288"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,13 +185,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +239,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -285,6 +324,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF009288"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -594,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,26 +644,34 @@
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="36.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="33.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="14.28515625" style="1"/>
+    <col min="3" max="7" width="11.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="36.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="33.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -637,50 +687,56 @@
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>17</v>
@@ -688,8 +744,8 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -702,6 +758,8 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDF62F6-809C-486E-9A0C-8706E9088DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F67E340-40EA-480D-8A4C-BCEC174AF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +248,9 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -753,7 +756,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>

--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F67E340-40EA-480D-8A4C-BCEC174AF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E318C1-FA80-42D3-87DA-43ACA6CE8237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devoluciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Devoluciones</t>
   </si>
@@ -89,6 +102,12 @@
   </si>
   <si>
     <t>Propietario</t>
+  </si>
+  <si>
+    <t>A devolver</t>
+  </si>
+  <si>
+    <t>SEPA</t>
   </si>
 </sst>
 </file>
@@ -639,130 +658,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="36.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="33.85546875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="14.28515625" style="1"/>
+    <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="36.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="33.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="3"/>
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f>D3-E3-F3-G3-H3</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E318C1-FA80-42D3-87DA-43ACA6CE8237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12777F1-BDB3-42D3-B7CF-9AA83AB17FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Devoluciones</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>SEPA</t>
+  </si>
+  <si>
+    <t>Devolución requerida</t>
+  </si>
+  <si>
+    <t>Fecha devolución requerida</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,21 +673,22 @@
     <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="36.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="33.85546875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="14.28515625" style="1"/>
+    <col min="4" max="10" width="11.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="36.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="33.85546875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,8 +702,10 @@
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -724,53 +733,59 @@
       <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
@@ -785,21 +800,25 @@
         <f>D3-E3-F3-G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="15"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/devoluciones.xlsx
+++ b/app/templates/report/devoluciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12777F1-BDB3-42D3-B7CF-9AA83AB17FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94E9F66-240E-4677-9713-623119A58918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Devoluciones</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Fecha devolución requerida</t>
+  </si>
+  <si>
+    <t>Retención temporal</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,18 +680,19 @@
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="36.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="33.85546875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="14.28515625" style="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="36.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="33.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="14.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,7 +709,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -746,46 +750,49 @@
         <v>8</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
@@ -812,13 +819,14 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="15"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
